--- a/src/test/resources/excelData.xlsx
+++ b/src/test/resources/excelData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>firstName</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>Mani@123@#</t>
+  </si>
+  <si>
+    <t>Mani12**(</t>
   </si>
 </sst>
 </file>
@@ -398,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -468,6 +471,29 @@
         <v>9986981193</v>
       </c>
     </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>

--- a/src/test/resources/excelData.xlsx
+++ b/src/test/resources/excelData.xlsx
@@ -3,18 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\workspace\Automation\eclipse\Moneytap-WQ\src\test\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14350" windowHeight="1650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15190" windowHeight="2020" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="custRegDetails" sheetId="1" r:id="rId1"/>
+    <sheet name="StepOne" sheetId="1" r:id="rId1"/>
+    <sheet name="StepTwo" sheetId="2" r:id="rId2"/>
+    <sheet name="StepThree" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:J5"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
   <si>
     <t>firstName</t>
   </si>
@@ -47,12 +45,6 @@
     <t>creditHistory</t>
   </si>
   <si>
-    <t>Raju</t>
-  </si>
-  <si>
-    <t>Devathi</t>
-  </si>
-  <si>
     <t>Male</t>
   </si>
   <si>
@@ -62,16 +54,106 @@
     <t>I have an active credit card</t>
   </si>
   <si>
-    <t>"20-08-1993"</t>
-  </si>
-  <si>
     <t>phoneNumber</t>
   </si>
   <si>
-    <t>Mani@123@#</t>
-  </si>
-  <si>
-    <t>Mani12**(</t>
+    <t>Mahesh</t>
+  </si>
+  <si>
+    <t>Rathore</t>
+  </si>
+  <si>
+    <t>San</t>
+  </si>
+  <si>
+    <t>residenceType</t>
+  </si>
+  <si>
+    <t>years in residence</t>
+  </si>
+  <si>
+    <t>years in city</t>
+  </si>
+  <si>
+    <t>address1</t>
+  </si>
+  <si>
+    <t>address2</t>
+  </si>
+  <si>
+    <t>pincode</t>
+  </si>
+  <si>
+    <t>Rented with Family</t>
+  </si>
+  <si>
+    <t>More than 3 years</t>
+  </si>
+  <si>
+    <t>14-s,M layout</t>
+  </si>
+  <si>
+    <t>Kalkere</t>
+  </si>
+  <si>
+    <t>companyName</t>
+  </si>
+  <si>
+    <t>companyType</t>
+  </si>
+  <si>
+    <t>designation</t>
+  </si>
+  <si>
+    <t>PAN</t>
+  </si>
+  <si>
+    <t>jobType</t>
+  </si>
+  <si>
+    <t>totalWorkExp</t>
+  </si>
+  <si>
+    <t>currentWorkExp</t>
+  </si>
+  <si>
+    <t>officeEmail</t>
+  </si>
+  <si>
+    <t>salary</t>
+  </si>
+  <si>
+    <t>salaryMode</t>
+  </si>
+  <si>
+    <t>bankName</t>
+  </si>
+  <si>
+    <t>MUDRA</t>
+  </si>
+  <si>
+    <t>Multinational</t>
+  </si>
+  <si>
+    <t>DESIGN ENGINEER</t>
+  </si>
+  <si>
+    <t>CKOPW4009F</t>
+  </si>
+  <si>
+    <t>Salaried</t>
+  </si>
+  <si>
+    <t>abcde@gmail.com</t>
+  </si>
+  <si>
+    <t>Netbanking</t>
+  </si>
+  <si>
+    <t>ICICI Bank</t>
+  </si>
+  <si>
+    <t>"20-01-1991"</t>
   </si>
 </sst>
 </file>
@@ -95,15 +177,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -111,15 +199,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -401,15 +505,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.6328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.08984375" bestFit="1" customWidth="1"/>
@@ -420,85 +524,222 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>13</v>
+      <c r="H1" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2">
+        <v>7000000800</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="B1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>23</v>
+      </c>
+      <c r="F2">
+        <v>560043</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
+        <v>39</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2">
-        <v>9986981193</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>11</v>
+        <v>21</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2">
+        <v>56000</v>
+      </c>
+      <c r="J2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="H2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>